--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3486899.399631827</v>
+        <v>3568583.442170122</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702199</v>
+        <v>2346514.7357022</v>
       </c>
     </row>
     <row r="8">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>228.0767087417152</v>
+      </c>
+      <c r="F2" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="F2" t="n">
-        <v>211.8367865735322</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="3">
@@ -741,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>128.4508714791029</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>25.54534254888806</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>21.57990476584692</v>
       </c>
       <c r="G4" t="n">
-        <v>13.46550985000068</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>372.039630846422</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>336.767776092893</v>
+        <v>158.5612949314651</v>
       </c>
       <c r="G5" t="n">
-        <v>372.039630846421</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385217</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -993,7 +995,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281888</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129693</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>172.8267424675155</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>40.77674358853466</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>135.8043613601005</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>64.0013780148159</v>
+        <v>78.37121764358479</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.41045236322665</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>133.9963273159767</v>
+        <v>112.348763733506</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>22.11041309544133</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>88.18421182873882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1581,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>93.11384720807494</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>179.8088876098634</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,19 +1818,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>158.6524474549907</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>169.4333835975975</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2132,19 +2134,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>88.01311698256073</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>122.2407729770145</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2479,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>101.2898147863558</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2533,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>238.0131998337527</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>33.35146980185944</v>
+        <v>140.4503312970637</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.86494278824938</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>255.48533898859</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274071</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>141.5720095553934</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>51.17810882694599</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>93.69524891258455</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3484,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498011</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3670,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>238.9330000946521</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.27683016996358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>91.04645315989373</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>193.2447533161214</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>276.7609407044668</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737.4494614202823</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="C2" t="n">
-        <v>737.4494614202823</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D2" t="n">
-        <v>737.4494614202823</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="E2" t="n">
-        <v>458.5034879835596</v>
+        <v>316.353594055456</v>
       </c>
       <c r="F2" t="n">
-        <v>244.5269358890827</v>
+        <v>37.40762061873335</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
         <v>586.3582880173956</v>
@@ -4352,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>737.4494614202823</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>737.4494614202823</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>737.4494614202823</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>737.4494614202823</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X2" t="n">
-        <v>737.4494614202823</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y2" t="n">
-        <v>737.4494614202823</v>
+        <v>825.6800813726991</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589.4332135374693</v>
+        <v>151.8408761255853</v>
       </c>
       <c r="C3" t="n">
-        <v>589.4332135374693</v>
+        <v>151.8408761255853</v>
       </c>
       <c r="D3" t="n">
-        <v>440.498803876218</v>
+        <v>151.8408761255853</v>
       </c>
       <c r="E3" t="n">
-        <v>281.2613488707625</v>
+        <v>151.8408761255853</v>
       </c>
       <c r="F3" t="n">
-        <v>134.7267908976475</v>
+        <v>151.8408761255853</v>
       </c>
       <c r="G3" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
         <v>22.09252109618843</v>
@@ -4407,22 +4409,22 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L3" t="n">
-        <v>94.45522409818568</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8501726635175</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288494</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121332</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4431,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>836.17674519153</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>406.078232853787</v>
       </c>
       <c r="V3" t="n">
-        <v>869.473946577679</v>
+        <v>406.078232853787</v>
       </c>
       <c r="W3" t="n">
-        <v>615.2365898494775</v>
+        <v>151.8408761255853</v>
       </c>
       <c r="X3" t="n">
-        <v>589.4332135374693</v>
+        <v>151.8408761255853</v>
       </c>
       <c r="Y3" t="n">
-        <v>589.4332135374693</v>
+        <v>151.8408761255853</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="F4" t="n">
-        <v>198.9927170031358</v>
+        <v>1082.828171207556</v>
       </c>
       <c r="G4" t="n">
-        <v>185.391191902125</v>
+        <v>1082.828171207556</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>1082.828171207556</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492714</v>
+        <v>964.335235071213</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>1013.323812322354</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9488293168851</v>
+        <v>1066.582167123171</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>1099.758582381748</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1114.692765124604</v>
+        <v>737.1187328949948</v>
       </c>
       <c r="C5" t="n">
-        <v>745.7302481841925</v>
+        <v>737.1187328949948</v>
       </c>
       <c r="D5" t="n">
-        <v>745.7302481841925</v>
+        <v>737.1187328949948</v>
       </c>
       <c r="E5" t="n">
-        <v>745.7302481841925</v>
+        <v>737.1187328949948</v>
       </c>
       <c r="F5" t="n">
-        <v>405.5607773832905</v>
+        <v>576.9558087217977</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771368</v>
+        <v>561.9758757140094</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771368</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380377</v>
+        <v>57.64391735380403</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456872</v>
+        <v>220.1747338456878</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039963</v>
+        <v>474.0852112039974</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494141</v>
+        <v>773.2160860494157</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635719</v>
+        <v>1062.555213635721</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293125</v>
+        <v>1290.582309293128</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935876</v>
+        <v>1447.52377693588</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385684</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385684</v>
+        <v>1366.762647488191</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385684</v>
+        <v>1366.762647488191</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385684</v>
+        <v>1366.762647488191</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.158523385684</v>
+        <v>1112.916339810572</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.158523385684</v>
+        <v>1112.916339810572</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.158523385684</v>
+        <v>1112.916339810572</v>
       </c>
       <c r="X5" t="n">
-        <v>1114.692765124604</v>
+        <v>1112.916339810572</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.692765124604</v>
+        <v>1112.916339810572</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>555.8615544597246</v>
+        <v>623.2903849666134</v>
       </c>
       <c r="C6" t="n">
-        <v>381.4085251785976</v>
+        <v>448.8373556854864</v>
       </c>
       <c r="D6" t="n">
-        <v>381.4085251785976</v>
+        <v>299.9029460242351</v>
       </c>
       <c r="E6" t="n">
-        <v>222.1710701731421</v>
+        <v>140.6654910187796</v>
       </c>
       <c r="F6" t="n">
-        <v>222.1710701731421</v>
+        <v>140.6654910187796</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>140.6654910187796</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771368</v>
+        <v>52.67537262782847</v>
       </c>
       <c r="K6" t="n">
-        <v>195.5446164760262</v>
+        <v>218.4568186361413</v>
       </c>
       <c r="L6" t="n">
-        <v>479.8626256221619</v>
+        <v>502.7748277822774</v>
       </c>
       <c r="M6" t="n">
-        <v>848.1818601601187</v>
+        <v>871.0940623202351</v>
       </c>
       <c r="N6" t="n">
-        <v>949.3968358693958</v>
+        <v>1078.493824334365</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241714</v>
+        <v>1386.808705706684</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385684</v>
+        <v>1386.808705706684</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385684</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707606</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107475</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="T6" t="n">
-        <v>1033.017297458523</v>
+        <v>1488.158523385688</v>
       </c>
       <c r="U6" t="n">
-        <v>804.8104831120872</v>
+        <v>1259.951709039252</v>
       </c>
       <c r="V6" t="n">
-        <v>804.8104831120872</v>
+        <v>1085.379241900348</v>
       </c>
       <c r="W6" t="n">
-        <v>804.8104831120872</v>
+        <v>831.1418851721462</v>
       </c>
       <c r="X6" t="n">
-        <v>763.6218532246785</v>
+        <v>623.2903849666134</v>
       </c>
       <c r="Y6" t="n">
-        <v>555.8615544597246</v>
+        <v>623.2903849666134</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.4110270483358</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="C7" t="n">
-        <v>94.4110270483358</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="D7" t="n">
-        <v>94.4110270483358</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="E7" t="n">
-        <v>94.4110270483358</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="F7" t="n">
-        <v>94.4110270483358</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="G7" t="n">
-        <v>94.4110270483358</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="H7" t="n">
-        <v>94.4110270483358</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="I7" t="n">
-        <v>94.4110270483358</v>
+        <v>108.9260165723449</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771368</v>
+        <v>29.76317046771376</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888128</v>
+        <v>32.09990175888154</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611212</v>
+        <v>90.6165479061126</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236679</v>
+        <v>162.7032697236687</v>
       </c>
       <c r="N7" t="n">
-        <v>238.510546840001</v>
+        <v>238.5105468400019</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057932</v>
+        <v>292.5145415057944</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918659</v>
+        <v>315.2036061918673</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918659</v>
+        <v>246.102139158305</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918659</v>
+        <v>246.102139158305</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918659</v>
+        <v>246.102139158305</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918659</v>
+        <v>246.102139158305</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918659</v>
+        <v>246.102139158305</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918659</v>
+        <v>246.102139158305</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918659</v>
+        <v>246.102139158305</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918659</v>
+        <v>246.102139158305</v>
       </c>
       <c r="Y7" t="n">
-        <v>94.4110270483358</v>
+        <v>246.102139158305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1857.168914859137</v>
+        <v>1877.070485994672</v>
       </c>
       <c r="C8" t="n">
-        <v>1857.168914859137</v>
+        <v>1508.10796905426</v>
       </c>
       <c r="D8" t="n">
-        <v>1498.903216252386</v>
+        <v>1149.84227044751</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.168914859137</v>
+        <v>1877.070485994672</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>639.0540227632637</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="X10" t="n">
-        <v>411.0644718652463</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>76.27673242182033</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,43 +5032,43 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845924</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>2013.406634128705</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404653</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404653</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404653</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404653</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404653</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1093.866765916012</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>1093.866765916012</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383447</v>
+        <v>839.1822777101255</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383447</v>
+        <v>839.1822777101255</v>
       </c>
       <c r="X13" t="n">
-        <v>447.0175521403273</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.3924131404653</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1196.088769018223</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1503.408902298184</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962217</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>849.6126242577293</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336716</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="17">
@@ -5510,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141295</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1016.776325118515</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>727.647686332073</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181194</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201021</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201021</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277036</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341677</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.773754790662</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2302.237516093322</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2507.259996875531</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683722</v>
+        <v>4037.957270257085</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404653</v>
+        <v>3869.021087329178</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404653</v>
+        <v>3869.021087329178</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404653</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404653</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G22" t="n">
-        <v>97.2170914602859</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H22" t="n">
-        <v>97.2170914602859</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.2170914602859</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.210845262961</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.210845262961</v>
+        <v>4548.167019437576</v>
       </c>
       <c r="W22" t="n">
-        <v>785.7936752260002</v>
+        <v>4258.749849400615</v>
       </c>
       <c r="X22" t="n">
-        <v>557.8041243279829</v>
+        <v>4258.749849400615</v>
       </c>
       <c r="Y22" t="n">
-        <v>434.3285960683722</v>
+        <v>4037.957270257085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.2170914602859</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256436</v>
+        <v>2471.066311049163</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277036</v>
+        <v>2881.956579893676</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341678</v>
+        <v>3128.721707800139</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3561.46833814532</v>
+        <v>3907.603135363461</v>
       </c>
       <c r="C25" t="n">
-        <v>3561.46833814532</v>
+        <v>3907.603135363461</v>
       </c>
       <c r="D25" t="n">
-        <v>3561.46833814532</v>
+        <v>3757.486495951126</v>
       </c>
       <c r="E25" t="n">
-        <v>3561.46833814532</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380587</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625199</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636328</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403511</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431059</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436456</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042139</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.77946957612</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491673</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281178</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494736</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.26091728885</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="W25" t="n">
-        <v>3782.26091728885</v>
+        <v>3907.603135363461</v>
       </c>
       <c r="X25" t="n">
-        <v>3782.26091728885</v>
+        <v>3907.603135363461</v>
       </c>
       <c r="Y25" t="n">
-        <v>3561.46833814532</v>
+        <v>3907.603135363461</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6248,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L27" t="n">
         <v>534.5429807341677</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916676</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916676</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>4036.945405494735</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>3782.260917288848</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W28" t="n">
-        <v>3492.843747251887</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X28" t="n">
-        <v>3459.155393916676</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916676</v>
+        <v>523.8169520164281</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6454,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,19 +6466,19 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6488,19 +6490,19 @@
         <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256436</v>
+        <v>2500.819361250805</v>
       </c>
       <c r="K30" t="n">
-        <v>485.5200852635867</v>
+        <v>2649.889045452865</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>2896.654173359329</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300437</v>
+        <v>3203.974306639291</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.59991596447</v>
+        <v>3973.880983602627</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183167</v>
+        <v>4253.421048821324</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557071</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>416.2699138005286</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
         <v>97.21709146028589</v>
@@ -6619,52 +6621,52 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1409.153702084924</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1409.153702084924</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1409.153702084924</v>
       </c>
       <c r="U31" t="n">
-        <v>1017.064856369034</v>
+        <v>1409.153702084924</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>1154.469213879037</v>
       </c>
       <c r="W31" t="n">
-        <v>727.6476863320734</v>
+        <v>865.052043842076</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340559</v>
+        <v>637.0624929440587</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905257</v>
+        <v>416.2699138005286</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6743,7 +6745,7 @@
         <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6780,16 +6782,16 @@
         <v>138.7081686256436</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277036</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341677</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.6385818722724</v>
+        <v>3775.243809179249</v>
       </c>
       <c r="C34" t="n">
-        <v>705.7023989443654</v>
+        <v>3775.243809179249</v>
       </c>
       <c r="D34" t="n">
-        <v>562.7003690904327</v>
+        <v>3775.243809179249</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904327</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925222</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123427</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799362</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119727</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119727</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909233</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909233</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.055751909233</v>
+        <v>4474.298994944467</v>
       </c>
       <c r="W34" t="n">
-        <v>874.6385818722724</v>
+        <v>4184.881824907507</v>
       </c>
       <c r="X34" t="n">
-        <v>874.6385818722724</v>
+        <v>3956.892274009489</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.6385818722724</v>
+        <v>3956.892274009489</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6953,34 +6955,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766205</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1028.859951698066</v>
       </c>
       <c r="N36" t="n">
-        <v>1908.095276920733</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O36" t="n">
-        <v>2187.63534213943</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2392.65782292164</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>451.3064419889987</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688073</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706323</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336716</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028589</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>620.2426249169056</v>
       </c>
     </row>
     <row r="38">
@@ -7151,67 +7153,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256436</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277036</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341677</v>
+        <v>3054.076152669714</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>3361.396285949676</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059517</v>
+        <v>3691.258913613709</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>973.0255547109413</v>
+        <v>675.7175987609741</v>
       </c>
       <c r="C40" t="n">
-        <v>804.0893717830344</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D40" t="n">
-        <v>653.9727323706986</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E40" t="n">
-        <v>506.0596387883055</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688073</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557903</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557903</v>
+        <v>857.3660635912138</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>857.3660635912138</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.499100520942</v>
+        <v>857.3660635912138</v>
       </c>
       <c r="Y40" t="n">
-        <v>1154.674019541181</v>
+        <v>857.3660635912138</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7390,52 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,13 +7444,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7476,28 +7478,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
         <v>2051.878056918008</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>3867.970784729898</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>3699.034601801991</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>3699.034601801991</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>3551.121508219598</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>3551.121508219598</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>3551.121508219598</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>4088.763363873428</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>3867.970784729898</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7664,34 +7666,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277036</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341677</v>
+        <v>1088.787142923175</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.2581065529677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>675.2581065529677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2581065529677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688073</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1192.644446598394</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>968.8590313878996</v>
       </c>
       <c r="U46" t="n">
-        <v>1219.359764795815</v>
+        <v>968.8590313878996</v>
       </c>
       <c r="V46" t="n">
-        <v>964.6752765899282</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="W46" t="n">
-        <v>675.2581065529677</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X46" t="n">
-        <v>675.2581065529677</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.2581065529677</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8055,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
-        <v>188.9217756997211</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324504</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
         <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>218.3140732255139</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948386</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835729</v>
+        <v>450.1033532835734</v>
       </c>
       <c r="N6" t="n">
-        <v>167.8129993019143</v>
+        <v>275.0703592058055</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>85.68821697936161</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247344</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298287</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>38.86002301949804</v>
+        <v>43.65987261462533</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>277.6717966208054</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>308.125109627204</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>360.5026862907245</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.47535963978136</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.03744927814591</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229571</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,16 +9962,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229573</v>
+        <v>176.7176547498441</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>199.7396287231143</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>444.4889386861647</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10428,19 +10430,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>230.7151863772027</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,13 +10667,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>188.8856946302395</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>145.2351313103788</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298287</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10907,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.1031356539312</v>
       </c>
       <c r="M39" t="n">
-        <v>199.6230805871081</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11145,10 +11147,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229573</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,28 +11378,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>295.3773510571261</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>128.4337138503143</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.77576574223139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>93.48519586883731</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>33.08849621799435</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>52.11417746079175</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>164.1245263412673</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>96.34388037508025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>44.13123323657547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>48.50979850283835</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>192.3581855871777</v>
+        <v>85.25932409197347</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037929</v>
+        <v>21.09940961554339</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>30.75201340998748</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>7.043463462819062</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>200.959534496882</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25312,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>54.92022410562781</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25603,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>13.2046432291759</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>164.3078231821312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>57.8673752076424</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>4.676056667481816</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>9.476411694110539</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>687971.5763598097</v>
+        <v>687971.5763598096</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>687971.5763598096</v>
+        <v>687971.5763598095</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>687971.5763598096</v>
+        <v>687971.5763598095</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>687971.5763598095</v>
+        <v>687971.5763598096</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>687971.5763598095</v>
+        <v>687971.5763598096</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>687971.5763598095</v>
+        <v>687971.5763598096</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>687971.5763598095</v>
+        <v>687971.5763598096</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>687971.5763598095</v>
+        <v>687971.5763598096</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.760514762</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="F2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="H2" t="n">
         <v>723403.7605147613</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="J2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="K2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="L2" t="n">
         <v>723403.7605147616</v>
       </c>
-      <c r="H2" t="n">
-        <v>723403.7605147619</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="N2" t="n">
         <v>723403.7605147614</v>
       </c>
-      <c r="J2" t="n">
-        <v>723403.7605147618</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147617</v>
-      </c>
       <c r="O2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703826</v>
+        <v>106137.1517703837</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252121</v>
+        <v>316711.942425211</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113896</v>
+        <v>72254.69487113944</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313393</v>
+        <v>24677.24609313412</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.1579381717</v>
+        <v>76496.15793817144</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484435</v>
+        <v>286886.6599484432</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26427,37 +26429,37 @@
         <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316548</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="G4" t="n">
-        <v>43561.42148316548</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316551</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="I4" t="n">
         <v>43561.42148316555</v>
       </c>
       <c r="J4" t="n">
-        <v>43561.4214831655</v>
+        <v>43561.42148316548</v>
       </c>
       <c r="K4" t="n">
-        <v>43561.42148316544</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="L4" t="n">
-        <v>43561.42148316543</v>
+        <v>43561.42148316548</v>
       </c>
       <c r="M4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316553</v>
       </c>
       <c r="N4" t="n">
-        <v>43561.4214831655</v>
+        <v>43561.42148316553</v>
       </c>
       <c r="O4" t="n">
-        <v>43561.4214831655</v>
+        <v>43561.42148316553</v>
       </c>
       <c r="P4" t="n">
-        <v>43561.4214831655</v>
+        <v>43561.42148316553</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485705</v>
+        <v>58810.42201485713</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="G5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871668</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871668</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>265061.9477239568</v>
+        <v>265061.9477239567</v>
       </c>
       <c r="C6" t="n">
-        <v>307629.4033907788</v>
+        <v>307629.4033907777</v>
       </c>
       <c r="D6" t="n">
-        <v>167686.0202434111</v>
+        <v>167686.0202434121</v>
       </c>
       <c r="E6" t="n">
-        <v>62694.97660598345</v>
+        <v>62694.97660598288</v>
       </c>
       <c r="F6" t="n">
+        <v>587855.013082879</v>
+      </c>
+      <c r="G6" t="n">
+        <v>587855.013082879</v>
+      </c>
+      <c r="H6" t="n">
         <v>587855.0130828791</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>587855.0130828789</v>
+      </c>
+      <c r="J6" t="n">
+        <v>515600.3182117398</v>
+      </c>
+      <c r="K6" t="n">
+        <v>563177.7669897452</v>
+      </c>
+      <c r="L6" t="n">
+        <v>511358.855144708</v>
+      </c>
+      <c r="M6" t="n">
+        <v>453053.9978490423</v>
+      </c>
+      <c r="N6" t="n">
         <v>587855.0130828794</v>
       </c>
-      <c r="H6" t="n">
-        <v>587855.0130828798</v>
-      </c>
-      <c r="I6" t="n">
-        <v>587855.0130828792</v>
-      </c>
-      <c r="J6" t="n">
-        <v>515600.3182117407</v>
-      </c>
-      <c r="K6" t="n">
-        <v>563177.7669897454</v>
-      </c>
-      <c r="L6" t="n">
-        <v>511358.8551447077</v>
-      </c>
-      <c r="M6" t="n">
-        <v>453053.9978490419</v>
-      </c>
-      <c r="N6" t="n">
-        <v>587855.0130828796</v>
-      </c>
       <c r="O6" t="n">
-        <v>587855.0130828796</v>
+        <v>587855.0130828791</v>
       </c>
       <c r="P6" t="n">
-        <v>587855.0130828796</v>
+        <v>587855.0130828794</v>
       </c>
     </row>
   </sheetData>
@@ -26735,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593881</v>
+        <v>117.5602045593889</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541005</v>
@@ -26790,28 +26792,28 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.039630846421</v>
+        <v>372.039630846422</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="J4" t="n">
         <v>1215.213643253574</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253574</v>
@@ -26820,16 +26822,16 @@
         <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026273</v>
+        <v>82.53894384026361</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576986</v>
+        <v>260.1834596576977</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406558</v>
+        <v>95.88311714406656</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081346</v>
+        <v>302.2476419081335</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023549</v>
+        <v>276.1565137023558</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406581</v>
+        <v>95.88311714406656</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081346</v>
+        <v>302.2476419081336</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406558</v>
+        <v>95.88311714406656</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081346</v>
+        <v>302.2476419081335</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699064</v>
+        <v>153.8536613305466</v>
       </c>
       <c r="F2" t="n">
-        <v>195.0392591681793</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="3">
@@ -27461,19 +27463,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>8.817316934636352</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268741</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>180.2276426545894</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>123.8411432570843</v>
       </c>
       <c r="G4" t="n">
-        <v>154.462316415358</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>88.89425643449839</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>10.6942108170586</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>70.10826964881841</v>
+        <v>248.3147508102463</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128937</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280911</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385219</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>198.2506096409305</v>
@@ -27670,7 +27672,7 @@
         <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281882</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129682</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>59.97384468190975</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>164.9962416149428</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>44.0276188218368</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27797,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>14.369839628769</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.4104523632268</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674584</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882338</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>247.9340427562851</v>
+        <v>269.5816063387558</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>124.3235495511278</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28056,10 +28058,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>198.3387865078522</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870377</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524632</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779989</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227321</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246752</v>
+        <v>0.4726038374246787</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025457</v>
+        <v>4.840054050025492</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231481</v>
+        <v>18.22005944231494</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662257</v>
+        <v>40.11165994662286</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480908</v>
+        <v>60.11698038480952</v>
       </c>
       <c r="L5" t="n">
-        <v>74.5804300743945</v>
+        <v>74.58043007439504</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819557</v>
+        <v>82.98509856819616</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127844</v>
+        <v>84.32788422127905</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288681</v>
+        <v>79.62842981288739</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646513</v>
+        <v>67.96102257646562</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869393</v>
+        <v>51.0358976486943</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262778</v>
+        <v>29.687200802628</v>
       </c>
       <c r="S5" t="n">
-        <v>10.7694599453148</v>
+        <v>10.76945994531488</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326517</v>
+        <v>2.068823298326532</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397401</v>
+        <v>0.03780830699397428</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560422</v>
+        <v>0.2528653456560441</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44214689094125</v>
+        <v>2.442146890941268</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596192</v>
+        <v>8.706109488596255</v>
       </c>
       <c r="J6" t="n">
-        <v>23.8902298718281</v>
+        <v>23.89022987182827</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078293</v>
+        <v>40.83220803078322</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483497</v>
+        <v>54.90394270483537</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486648</v>
+        <v>64.07031148486695</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270899</v>
+        <v>65.76606198270946</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106721</v>
+        <v>60.16309827106764</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496828</v>
+        <v>48.28619043496863</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128708</v>
+        <v>32.27803956128731</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134621</v>
+        <v>15.69983260134632</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707623</v>
+        <v>4.696862889707657</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359223</v>
+        <v>1.01922479235923</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368699</v>
+        <v>0.01663587800368712</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005358</v>
+        <v>0.2119938115005373</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886583</v>
+        <v>1.884817705886597</v>
       </c>
       <c r="I7" t="n">
-        <v>6.37523207676157</v>
+        <v>6.375232076761616</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308788</v>
+        <v>14.98796247308799</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342588</v>
+        <v>24.62982646342606</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072512</v>
+        <v>31.51769812072535</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094308</v>
+        <v>33.23099356094332</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898657</v>
+        <v>32.4408348089868</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736665</v>
+        <v>29.96436164736687</v>
       </c>
       <c r="P7" t="n">
-        <v>25.6396878927557</v>
+        <v>25.63968789275589</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.7515908884676</v>
+        <v>17.75159088846772</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651362</v>
+        <v>9.532012651651431</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513882</v>
+        <v>3.694473969513909</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477437</v>
+        <v>0.9057917400477503</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912015</v>
+        <v>0.01156329880912023</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34714,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424823</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522132</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66.72331584343468</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
         <v>276.1565137023554</v>
@@ -34790,10 +34792,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>93.64045453795988</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.9166388158319</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201005</v>
+        <v>28.16237059201034</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109933</v>
+        <v>164.1725419109937</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548577</v>
+        <v>256.4752296548583</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337553</v>
+        <v>302.1523988337559</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366717</v>
+        <v>292.2617450366723</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539454</v>
+        <v>230.330399653946</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926782</v>
+        <v>158.5267349926787</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414913</v>
+        <v>41.0451984341495</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>23.14363854557041</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690025</v>
+        <v>167.4560060690028</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284199</v>
+        <v>287.1899082284203</v>
       </c>
       <c r="M6" t="n">
-        <v>372.039630846421</v>
+        <v>372.039630846422</v>
       </c>
       <c r="N6" t="n">
-        <v>102.2373492012899</v>
+        <v>209.4947091051816</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033523</v>
+        <v>311.4291731033527</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605752</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.3735532111149</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.36033463754303</v>
+        <v>2.360334637543207</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104126</v>
+        <v>59.10772338104149</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278366</v>
+        <v>72.81487052278391</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821516</v>
+        <v>76.5730071882154</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140633</v>
+        <v>54.54948956140655</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764919</v>
+        <v>22.91824715764938</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>321.2237252606063</v>
+        <v>326.0235748557334</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>526.9295015768298</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>641.3196830252168</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>642.8663885318327</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.4883924248555</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>137.9476282330526</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734236</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734237</v>
+        <v>487.1420318003106</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507419</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>350.3150673110537</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>777.6835120841778</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411083</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556543</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187466</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,19 +37150,19 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>479.9728913332272</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315248</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556543</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187466</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37321,7 +37323,7 @@
         <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
@@ -37385,13 +37387,13 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>499.3100716807059</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415666</v>
@@ -37403,10 +37405,10 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>233.248164095453</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109073</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>534.3608406099556</v>
       </c>
       <c r="M39" t="n">
-        <v>510.0474576375746</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315248</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081121</v>
@@ -37865,10 +37867,10 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411083</v>
@@ -38032,7 +38034,7 @@
         <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502049</v>
@@ -38096,28 +38098,28 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>544.6350560131506</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507419</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
